--- a/reports/Angola_top_partners_cols.xlsx
+++ b/reports/Angola_top_partners_cols.xlsx
@@ -3463,295 +3463,295 @@
         <v>167</v>
       </c>
       <c r="D6">
-        <v>1.603105898580646E-06</v>
+        <v>1.60310589828071E-06</v>
       </c>
       <c r="E6">
-        <v>5.192717773602602E-09</v>
+        <v>5.19271777263106E-09</v>
       </c>
       <c r="G6">
-        <v>8.586529747064302E-08</v>
+        <v>8.586529745457789E-08</v>
       </c>
       <c r="I6">
-        <v>4.200537770432105E-07</v>
+        <v>4.200537769646197E-07</v>
       </c>
       <c r="J6">
-        <v>7.223971200654191E-07</v>
+        <v>7.223971199302608E-07</v>
       </c>
       <c r="Q6">
-        <v>0.007846184238641257</v>
+        <v>0.007846184237173261</v>
       </c>
       <c r="R6">
-        <v>1.09721199285192E-05</v>
+        <v>1.097211992646635E-05</v>
       </c>
       <c r="T6">
-        <v>3.236308365481764E-08</v>
+        <v>3.236308364876261E-08</v>
       </c>
       <c r="W6">
-        <v>0.0006289769613500738</v>
+        <v>0.0006289769612323942</v>
       </c>
       <c r="Z6">
-        <v>2.831344448782474E-05</v>
+        <v>2.831344448252738E-05</v>
       </c>
       <c r="AB6">
-        <v>2.102719530083696E-06</v>
+        <v>2.102719529690284E-06</v>
       </c>
       <c r="AD6">
-        <v>3.137846753391431E-05</v>
+        <v>3.137846752804349E-05</v>
       </c>
       <c r="AE6">
-        <v>0.02557541560953335</v>
+        <v>0.02557541560474827</v>
       </c>
       <c r="AF6">
-        <v>2.13550518439407E-07</v>
+        <v>2.135505183994523E-07</v>
       </c>
       <c r="AG6">
-        <v>3.790154105569328E-09</v>
+        <v>3.790154104860201E-09</v>
       </c>
       <c r="AH6">
-        <v>0.4445853536651129</v>
+        <v>0.4445853535819324</v>
       </c>
       <c r="AI6">
-        <v>0.001414704520369266</v>
+        <v>0.00141470452010458</v>
       </c>
       <c r="AJ6">
-        <v>5.14317915331533E-06</v>
+        <v>5.143179152353058E-06</v>
       </c>
       <c r="AK6">
-        <v>8.71330094373108E-07</v>
+        <v>8.713300942100848E-07</v>
       </c>
       <c r="AL6">
-        <v>0.02488981330605467</v>
+        <v>0.02488981330139787</v>
       </c>
       <c r="AM6">
-        <v>0.0001036594960882518</v>
+        <v>0.0001036594960688574</v>
       </c>
       <c r="AN6">
-        <v>4.300418107199869E-07</v>
+        <v>4.300418106395274E-07</v>
       </c>
       <c r="AO6">
-        <v>4.490641135845107E-09</v>
+        <v>4.490641135004922E-09</v>
       </c>
       <c r="AP6">
-        <v>2.108495103933928E-06</v>
+        <v>2.108495103539435E-06</v>
       </c>
       <c r="AQ6">
-        <v>9.226168718442653E-05</v>
+        <v>9.226168716716464E-05</v>
       </c>
       <c r="AS6">
-        <v>0.001177828432911398</v>
+        <v>0.00117782843269103</v>
       </c>
       <c r="AT6">
-        <v>0.0001241803086790594</v>
+        <v>0.0001241803086558257</v>
       </c>
       <c r="AU6">
-        <v>3.633445301330249E-07</v>
+        <v>3.633445300650443E-07</v>
       </c>
       <c r="AV6">
-        <v>2.490385054686962E-08</v>
+        <v>2.490385054221019E-08</v>
       </c>
       <c r="AZ6">
-        <v>9.984933942187088E-09</v>
+        <v>9.984933940318937E-09</v>
       </c>
       <c r="BB6">
-        <v>7.921543950546827E-09</v>
+        <v>7.921543949064729E-09</v>
       </c>
       <c r="BC6">
-        <v>0.01589511551552907</v>
+        <v>0.01589511551255514</v>
       </c>
       <c r="BD6">
-        <v>2.437398138629793E-09</v>
+        <v>2.437398138173763E-09</v>
       </c>
       <c r="BE6">
-        <v>3.024719555142084E-07</v>
+        <v>3.024719554576168E-07</v>
       </c>
       <c r="BF6">
-        <v>0.004518779906129349</v>
+        <v>0.0045187799052839</v>
       </c>
       <c r="BG6">
-        <v>1.587113122641691E-05</v>
+        <v>1.587113122344747E-05</v>
       </c>
       <c r="BM6">
-        <v>3.77531776907332E-09</v>
+        <v>3.77531776836697E-09</v>
       </c>
       <c r="BO6">
-        <v>1.227706845044615E-07</v>
+        <v>1.227706844814915E-07</v>
       </c>
       <c r="BP6">
-        <v>0.0002228969732898342</v>
+        <v>0.0002228969732481309</v>
       </c>
       <c r="BQ6">
-        <v>0.1062446241465069</v>
+        <v>0.1062446241266289</v>
       </c>
       <c r="BR6">
-        <v>0.006669184028782311</v>
+        <v>0.006669184027534527</v>
       </c>
       <c r="BS6">
-        <v>1.297654872931685E-08</v>
+        <v>1.297654872688897E-08</v>
       </c>
       <c r="BT6">
-        <v>4.768822445145247E-07</v>
+        <v>4.768822444253015E-07</v>
       </c>
       <c r="BU6">
-        <v>0.01162427110176202</v>
+        <v>0.01162427109958715</v>
       </c>
       <c r="BW6">
-        <v>0.005081192475799495</v>
+        <v>0.00508119247484882</v>
       </c>
       <c r="CE6">
-        <v>6.435260955143224E-08</v>
+        <v>6.453970633995493E-08</v>
       </c>
       <c r="CI6">
-        <v>6.134767931125806E-05</v>
+        <v>6.13476792997801E-05</v>
       </c>
       <c r="CJ6">
-        <v>8.524588042193472E-09</v>
+        <v>8.524588040598547E-09</v>
       </c>
       <c r="CK6">
-        <v>1.577378101489088E-05</v>
+        <v>1.577378101193965E-05</v>
       </c>
       <c r="CL6">
-        <v>1.488574679523074E-06</v>
+        <v>1.488574679244567E-06</v>
       </c>
       <c r="CO6">
-        <v>9.246481786556347E-07</v>
+        <v>9.24648178482636E-07</v>
       </c>
       <c r="CP6">
-        <v>1.130687801743938E-06</v>
+        <v>1.13068780153239E-06</v>
       </c>
       <c r="CR6">
-        <v>3.542175338421775E-08</v>
+        <v>3.542175337759045E-08</v>
       </c>
       <c r="CS6">
-        <v>0.0001175735688168262</v>
+        <v>0.0001175735687948285</v>
       </c>
       <c r="CT6">
-        <v>4.621121416635887E-05</v>
+        <v>4.621121415771289E-05</v>
       </c>
       <c r="CV6">
-        <v>5.089601260936646E-05</v>
+        <v>5.089601259984397E-05</v>
       </c>
       <c r="CW6">
-        <v>4.636355155002323E-10</v>
+        <v>4.636355154134875E-10</v>
       </c>
       <c r="CX6">
-        <v>0.009773718844645328</v>
+        <v>0.009773718842816696</v>
       </c>
       <c r="CZ6">
-        <v>2.997361218176156E-08</v>
+        <v>2.997361217615359E-08</v>
       </c>
       <c r="DB6">
-        <v>6.441354450489798E-07</v>
+        <v>6.441354449284641E-07</v>
       </c>
       <c r="DC6">
-        <v>0.0007015001003706056</v>
+        <v>0.000701500100239357</v>
       </c>
       <c r="DD6">
-        <v>0.0001486587935105511</v>
+        <v>0.0001486587934827375</v>
       </c>
       <c r="DF6">
-        <v>0.06629932979857632</v>
+        <v>0.06629932978617192</v>
       </c>
       <c r="DG6">
-        <v>1.737239627233568E-05</v>
+        <v>1.737239626908535E-05</v>
       </c>
       <c r="DI6">
-        <v>2.426763664577119E-05</v>
+        <v>2.426763664123079E-05</v>
       </c>
       <c r="DK6">
-        <v>0.005539739696828608</v>
+        <v>0.00553973969579214</v>
       </c>
       <c r="DL6">
-        <v>1.657934109970802E-06</v>
+        <v>1.657934109660608E-06</v>
       </c>
       <c r="DM6">
-        <v>2.736784811736011E-05</v>
+        <v>2.736784811223967E-05</v>
       </c>
       <c r="DN6">
-        <v>0.03034309353729176</v>
+        <v>0.03034309353161467</v>
       </c>
       <c r="DP6">
-        <v>0.001848473655959108</v>
+        <v>0.001848473655613264</v>
       </c>
       <c r="DR6">
-        <v>3.311682253573088E-09</v>
+        <v>3.311682252953482E-09</v>
       </c>
       <c r="DS6">
-        <v>1.385289933398637E-06</v>
+        <v>1.385289933139453E-06</v>
       </c>
       <c r="DW6">
-        <v>0.0004204382633528503</v>
+        <v>0.0004204382632741876</v>
       </c>
       <c r="DY6">
-        <v>7.132038901295002E-08</v>
+        <v>7.13203889996062E-08</v>
       </c>
       <c r="DZ6">
-        <v>3.685240011776132E-08</v>
+        <v>3.685240011086635E-08</v>
       </c>
       <c r="EC6">
-        <v>1.181101127392136E-05</v>
+        <v>1.181101127171155E-05</v>
       </c>
       <c r="EE6">
-        <v>1.311426172414943E-09</v>
+        <v>1.311426172169579E-09</v>
       </c>
       <c r="EG6">
-        <v>0.03712770700742384</v>
+        <v>0.03712770700047736</v>
       </c>
       <c r="EH6">
-        <v>0.01887325925243592</v>
+        <v>0.01887325924890479</v>
       </c>
       <c r="EI6">
-        <v>3.046747673287241E-10</v>
+        <v>3.046747672717204E-10</v>
       </c>
       <c r="EJ6">
-        <v>1.400179256810702E-08</v>
+        <v>1.400179256548732E-08</v>
       </c>
       <c r="EN6">
-        <v>0.00119110530514899</v>
+        <v>0.001191105304926138</v>
       </c>
       <c r="EO6">
-        <v>1.773159170174703E-05</v>
+        <v>1.77315916984295E-05</v>
       </c>
       <c r="EQ6">
-        <v>0.004397619981854402</v>
+        <v>0.004397619981031621</v>
       </c>
       <c r="ET6">
-        <v>8.006283276051255E-09</v>
+        <v>8.006283274553304E-09</v>
       </c>
       <c r="EU6">
-        <v>1.972437950228131E-08</v>
+        <v>1.972437949859094E-08</v>
       </c>
       <c r="EV6">
-        <v>2.399933739631571E-05</v>
+        <v>2.399933739182551E-05</v>
       </c>
       <c r="EW6">
-        <v>0.132868196435513</v>
+        <v>0.1328681964106538</v>
       </c>
       <c r="EX6">
-        <v>2.216071790258996E-06</v>
+        <v>2.216071789844376E-06</v>
       </c>
       <c r="EY6">
-        <v>1.013003861180965E-05</v>
+        <v>1.013003860991435E-05</v>
       </c>
       <c r="EZ6">
-        <v>0.01635929666379739</v>
+        <v>0.01635929666073662</v>
       </c>
       <c r="FA6">
-        <v>0.01670935306888796</v>
+        <v>0.01670935306576169</v>
       </c>
       <c r="FB6">
-        <v>1.360164862477229E-05</v>
+        <v>1.360164862222746E-05</v>
       </c>
       <c r="FD6">
-        <v>2.579318294597315E-05</v>
+        <v>2.579318294114733E-05</v>
       </c>
       <c r="FE6">
-        <v>0.0001273955414986794</v>
+        <v>0.0001273955414748441</v>
       </c>
       <c r="FG6">
-        <v>1.090934367972047E-06</v>
+        <v>1.090934367767936E-06</v>
       </c>
       <c r="FH6">
-        <v>3.536790543077465E-07</v>
+        <v>3.536790542415742E-07</v>
       </c>
       <c r="FJ6">
         <v>121019</v>
@@ -3889,7 +3889,7 @@
         <v>383580918</v>
       </c>
       <c r="IK6">
-        <v>4858</v>
+        <v>4872.124</v>
       </c>
       <c r="IO6">
         <v>4631156.812</v>
@@ -5305,343 +5305,343 @@
         <v>167</v>
       </c>
       <c r="D9">
-        <v>4.217011262645551E-05</v>
+        <v>4.217011255480963E-05</v>
       </c>
       <c r="G9">
-        <v>7.610088694189183E-07</v>
+        <v>7.610088681259849E-07</v>
       </c>
       <c r="H9">
-        <v>3.638348262591928E-09</v>
+        <v>3.638348256410473E-09</v>
       </c>
       <c r="I9">
-        <v>0.0005228686036245429</v>
+        <v>0.0005228686027362034</v>
       </c>
       <c r="J9">
-        <v>0.0005544146035649665</v>
+        <v>0.0005544146026230312</v>
       </c>
       <c r="O9">
-        <v>4.615814960004685E-10</v>
+        <v>4.615814952162541E-10</v>
       </c>
       <c r="P9">
-        <v>5.348914983064253E-07</v>
+        <v>5.348914973976591E-07</v>
       </c>
       <c r="Q9">
-        <v>0.01625546690710032</v>
+        <v>0.01625546687948272</v>
       </c>
       <c r="R9">
-        <v>0.0002118758454641388</v>
+        <v>0.0002118758451041675</v>
       </c>
       <c r="T9">
-        <v>1.163760989198546E-06</v>
+        <v>1.163760987221348E-06</v>
       </c>
       <c r="V9">
-        <v>2.225256860239615E-06</v>
+        <v>2.225256856458964E-06</v>
       </c>
       <c r="W9">
-        <v>0.0009092939613980218</v>
+        <v>0.0009092939598531561</v>
       </c>
       <c r="Y9">
-        <v>1.629111162354595E-09</v>
+        <v>1.629111159586779E-09</v>
       </c>
       <c r="Z9">
-        <v>7.242096702065893E-06</v>
+        <v>7.242096689761768E-06</v>
       </c>
       <c r="AA9">
-        <v>1.218575149441237E-07</v>
+        <v>1.218575147370911E-07</v>
       </c>
       <c r="AB9">
-        <v>1.269712215727524E-06</v>
+        <v>1.269712213570318E-06</v>
       </c>
       <c r="AC9">
-        <v>5.430370541181983E-08</v>
+        <v>5.43037053195593E-08</v>
       </c>
       <c r="AD9">
-        <v>0.0003893323165797317</v>
+        <v>0.0003893323159182666</v>
       </c>
       <c r="AE9">
-        <v>0.01412633961513851</v>
+        <v>0.01412633959113824</v>
       </c>
       <c r="AF9">
-        <v>1.264190261987165E-06</v>
+        <v>1.264190259839341E-06</v>
       </c>
       <c r="AG9">
-        <v>0.001595237901365079</v>
+        <v>0.001595237898654813</v>
       </c>
       <c r="AH9">
-        <v>0.4344733953284274</v>
+        <v>0.4344733945902689</v>
       </c>
       <c r="AI9">
-        <v>0.0006547256448328116</v>
+        <v>0.0006547256437204505</v>
       </c>
       <c r="AK9">
-        <v>5.103679449424475E-06</v>
+        <v>5.103679440753462E-06</v>
       </c>
       <c r="AL9">
-        <v>0.0117383929705205</v>
+        <v>0.01173839295057729</v>
       </c>
       <c r="AM9">
-        <v>8.061385068384653E-08</v>
+        <v>8.061385054688579E-08</v>
       </c>
       <c r="AP9">
-        <v>1.318493967398985E-07</v>
+        <v>1.3184939651589E-07</v>
       </c>
       <c r="AQ9">
-        <v>0.0004115902662177526</v>
+        <v>0.0004115902655184719</v>
       </c>
       <c r="AR9">
-        <v>0.001034863793256686</v>
+        <v>0.001034863791498481</v>
       </c>
       <c r="AS9">
-        <v>0.0009145660094860756</v>
+        <v>0.0009145660079322527</v>
       </c>
       <c r="AT9">
-        <v>1.475933523732708E-06</v>
+        <v>1.475933521225137E-06</v>
       </c>
       <c r="AU9">
-        <v>2.916108980614724E-07</v>
+        <v>2.916108975660334E-07</v>
       </c>
       <c r="AV9">
-        <v>7.842560141871914E-08</v>
+        <v>7.842560128547617E-08</v>
       </c>
       <c r="AY9">
-        <v>5.192493159625506E-09</v>
+        <v>5.192493150803601E-09</v>
       </c>
       <c r="AZ9">
-        <v>2.733550240724215E-07</v>
+        <v>2.733550236079987E-07</v>
       </c>
       <c r="BB9">
-        <v>0.001214161561480186</v>
+        <v>0.001214161559417358</v>
       </c>
       <c r="BC9">
-        <v>0.04372751189025071</v>
+        <v>0.04372751181595886</v>
       </c>
       <c r="BD9">
-        <v>5.484674246593802E-09</v>
+        <v>5.48467423727549E-09</v>
       </c>
       <c r="BE9">
-        <v>5.470274804548277E-07</v>
+        <v>5.470274795254429E-07</v>
       </c>
       <c r="BF9">
-        <v>0.00229260041983492</v>
+        <v>0.002292600415939854</v>
       </c>
       <c r="BG9">
-        <v>0.0008789811785151297</v>
+        <v>0.0008789811770217646</v>
       </c>
       <c r="BH9">
-        <v>7.955492842831605E-09</v>
+        <v>7.955492829315439E-09</v>
       </c>
       <c r="BL9">
-        <v>2.458301592140378E-06</v>
+        <v>2.45830158796379E-06</v>
       </c>
       <c r="BN9">
-        <v>2.672662754068266E-05</v>
+        <v>2.672662749527484E-05</v>
       </c>
       <c r="BO9">
-        <v>1.357592635295496E-10</v>
+        <v>1.357592632988982E-10</v>
       </c>
       <c r="BQ9">
-        <v>0.08606047378102122</v>
+        <v>0.0860604736348068</v>
       </c>
       <c r="BR9">
-        <v>0.01738557565426847</v>
+        <v>0.01738557562473085</v>
       </c>
       <c r="BS9">
-        <v>1.112890065372482E-06</v>
+        <v>1.112890063481712E-06</v>
       </c>
       <c r="BT9">
-        <v>3.187627507673823E-05</v>
+        <v>3.187627502258131E-05</v>
       </c>
       <c r="BU9">
-        <v>0.02638074622103649</v>
+        <v>0.02638074617621632</v>
       </c>
       <c r="BW9">
-        <v>0.00738931697983743</v>
+        <v>0.007389316967283181</v>
       </c>
       <c r="BZ9">
-        <v>6.821831039950195E-06</v>
+        <v>6.82183102836009E-06</v>
       </c>
       <c r="CA9">
-        <v>5.081361603966913E-06</v>
+        <v>5.081361595333818E-06</v>
       </c>
       <c r="CD9">
-        <v>1.226693553400304E-09</v>
+        <v>1.226693551316185E-09</v>
       </c>
       <c r="CE9">
-        <v>3.431963771951983E-07</v>
+        <v>3.448953494885973E-07</v>
       </c>
       <c r="CG9">
-        <v>6.516444649418379E-10</v>
+        <v>6.516444638347117E-10</v>
       </c>
       <c r="CH9">
-        <v>1.031770402824577E-09</v>
+        <v>1.031770401071627E-09</v>
       </c>
       <c r="CK9">
-        <v>4.80507423410596E-05</v>
+        <v>4.805074225942269E-05</v>
       </c>
       <c r="CM9">
-        <v>6.027711300712E-08</v>
+        <v>6.027711290471082E-08</v>
       </c>
       <c r="CN9">
-        <v>9.039159939325621E-06</v>
+        <v>9.039159923968334E-06</v>
       </c>
       <c r="CO9">
-        <v>2.414777172252804E-06</v>
+        <v>2.414777168150163E-06</v>
       </c>
       <c r="CP9">
-        <v>1.257049324725511E-05</v>
+        <v>1.257049322589818E-05</v>
       </c>
       <c r="CR9">
-        <v>4.724422370828325E-08</v>
+        <v>4.72442236280166E-08</v>
       </c>
       <c r="CS9">
-        <v>8.910370556385679E-07</v>
+        <v>8.910370541247202E-07</v>
       </c>
       <c r="CT9">
-        <v>2.817463367334062E-05</v>
+        <v>2.817463362547268E-05</v>
       </c>
       <c r="CV9">
-        <v>0.0009662116571253976</v>
+        <v>0.0009662116554838303</v>
       </c>
       <c r="CW9">
-        <v>2.871932916262209E-06</v>
+        <v>2.871932911382873E-06</v>
       </c>
       <c r="CX9">
-        <v>0.01392621818021164</v>
+        <v>0.01392621815655137</v>
       </c>
       <c r="CZ9">
-        <v>5.352890014300398E-08</v>
+        <v>5.352890005205983E-08</v>
       </c>
       <c r="DA9">
-        <v>1.329897745535468E-07</v>
+        <v>1.329897743276007E-07</v>
       </c>
       <c r="DB9">
-        <v>9.706787342362793E-08</v>
+        <v>9.706787325871226E-08</v>
       </c>
       <c r="DC9">
-        <v>6.924070581062423E-05</v>
+        <v>6.924070569298615E-05</v>
       </c>
       <c r="DD9">
-        <v>0.0007883465410419768</v>
+        <v>0.0007883465397025975</v>
       </c>
       <c r="DE9">
-        <v>4.943119683633347E-08</v>
+        <v>4.943119675235121E-08</v>
       </c>
       <c r="DF9">
-        <v>0.03702518791081145</v>
+        <v>0.03702518784790666</v>
       </c>
       <c r="DG9">
-        <v>1.727520337301895E-05</v>
+        <v>1.727520334366884E-05</v>
       </c>
       <c r="DK9">
-        <v>6.15644285020568E-06</v>
+        <v>6.156442839746051E-06</v>
       </c>
       <c r="DL9">
-        <v>2.409354947267434E-05</v>
+        <v>2.409354943174005E-05</v>
       </c>
       <c r="DM9">
-        <v>0.0001065005085092192</v>
+        <v>0.0001065005083282777</v>
       </c>
       <c r="DN9">
-        <v>0.03438882485105956</v>
+        <v>0.03438882479263388</v>
       </c>
       <c r="DP9">
-        <v>0.003870258562934785</v>
+        <v>0.003870258556359321</v>
       </c>
       <c r="DR9">
-        <v>0.00112915090268026</v>
+        <v>0.001129150900761864</v>
       </c>
       <c r="DS9">
-        <v>5.494177395040871E-07</v>
+        <v>5.494177385706413E-07</v>
       </c>
       <c r="DT9">
-        <v>9.092156283029652E-07</v>
+        <v>9.092156267582326E-07</v>
       </c>
       <c r="DW9">
-        <v>0.0008100758784549074</v>
+        <v>0.0008100758770786105</v>
       </c>
       <c r="DX9">
-        <v>1.431622161698159E-08</v>
+        <v>1.431622159265872E-08</v>
       </c>
       <c r="DY9">
-        <v>0.0004709978942781416</v>
+        <v>0.000470997893477929</v>
       </c>
       <c r="DZ9">
-        <v>1.330142112209821E-06</v>
+        <v>1.330142109949945E-06</v>
       </c>
       <c r="EA9">
-        <v>9.616100154325054E-10</v>
+        <v>9.61610013798756E-10</v>
       </c>
       <c r="EC9">
-        <v>5.093539782809607E-05</v>
+        <v>5.093539774155821E-05</v>
       </c>
       <c r="ED9">
-        <v>2.690192261693728E-07</v>
+        <v>2.690192257123164E-07</v>
       </c>
       <c r="EE9">
-        <v>5.005715564861552E-07</v>
+        <v>5.005715556356977E-07</v>
       </c>
       <c r="EF9">
-        <v>4.947067563016786E-08</v>
+        <v>4.947067554611853E-08</v>
       </c>
       <c r="EG9">
-        <v>0.0364979155645691</v>
+        <v>0.03649791550256013</v>
       </c>
       <c r="EH9">
-        <v>0.06084851519600279</v>
+        <v>0.06084851509262281</v>
       </c>
       <c r="EI9">
-        <v>1.027018828601042E-06</v>
+        <v>1.027018826856165E-06</v>
       </c>
       <c r="EN9">
-        <v>3.947659320388305E-05</v>
+        <v>3.947659313681339E-05</v>
       </c>
       <c r="EO9">
-        <v>5.391103613254254E-06</v>
+        <v>5.391103604094916E-06</v>
       </c>
       <c r="EQ9">
-        <v>0.004228369035225846</v>
+        <v>0.004228369028041961</v>
       </c>
       <c r="ES9">
-        <v>2.10087180104858E-05</v>
+        <v>2.100871797479256E-05</v>
       </c>
       <c r="ET9">
-        <v>4.678678897898729E-05</v>
+        <v>4.678678889949781E-05</v>
       </c>
       <c r="EU9">
-        <v>2.883798275894692E-07</v>
+        <v>2.883798270995197E-07</v>
       </c>
       <c r="EV9">
-        <v>4.862299478868936E-06</v>
+        <v>4.862299470608021E-06</v>
       </c>
       <c r="EW9">
-        <v>0.07920342855298187</v>
+        <v>0.0792034284184174</v>
       </c>
       <c r="EX9">
-        <v>1.449908934495589E-08</v>
+        <v>1.449908932032233E-08</v>
       </c>
       <c r="EY9">
-        <v>1.366281228161387E-06</v>
+        <v>1.366281225840112E-06</v>
       </c>
       <c r="EZ9">
-        <v>0.02868902530010028</v>
+        <v>0.02868902525135841</v>
       </c>
       <c r="FA9">
-        <v>0.0273215844218488</v>
+        <v>0.02732158437543017</v>
       </c>
       <c r="FB9">
-        <v>4.575630217999938E-07</v>
+        <v>4.575630210226067E-07</v>
       </c>
       <c r="FC9">
-        <v>2.76677379073222E-08</v>
+        <v>2.766773786031546E-08</v>
       </c>
       <c r="FE9">
-        <v>6.01484403771467E-05</v>
+        <v>6.014844027495614E-05</v>
       </c>
       <c r="FG9">
-        <v>1.079956350531371E-05</v>
+        <v>1.079956348696554E-05</v>
       </c>
       <c r="FH9">
-        <v>9.873651768352234E-07</v>
+        <v>9.873651751577167E-07</v>
       </c>
       <c r="FJ9">
         <v>1553121</v>
@@ -5806,7 +5806,7 @@
         <v>45.179</v>
       </c>
       <c r="IK9">
-        <v>12639.888</v>
+        <v>12702.461</v>
       </c>
       <c r="IM9">
         <v>24</v>
@@ -8717,328 +8717,328 @@
         <v>167</v>
       </c>
       <c r="E14">
-        <v>0.0001164656137206524</v>
+        <v>0.0001164655003889032</v>
       </c>
       <c r="G14">
-        <v>3.576093117674122E-09</v>
+        <v>3.576089637806755E-09</v>
       </c>
       <c r="I14">
-        <v>3.673957116682674E-06</v>
+        <v>3.673953541584638E-06</v>
       </c>
       <c r="J14">
-        <v>5.065168504057617E-06</v>
+        <v>5.065163575183002E-06</v>
       </c>
       <c r="K14">
-        <v>6.091965840073028E-07</v>
+        <v>6.091959912030209E-07</v>
       </c>
       <c r="L14">
-        <v>4.325381670981337E-07</v>
+        <v>4.325377461987323E-07</v>
       </c>
       <c r="M14">
-        <v>9.66457282923621E-08</v>
+        <v>9.664563424718347E-08</v>
       </c>
       <c r="P14">
-        <v>7.330449437580312E-07</v>
+        <v>7.330442304379093E-07</v>
       </c>
       <c r="Q14">
-        <v>0.01351468153638694</v>
+        <v>0.01351466838535935</v>
       </c>
       <c r="R14">
-        <v>3.880644082463592E-05</v>
+        <v>3.880640306240138E-05</v>
       </c>
       <c r="S14">
-        <v>7.220492696016608E-09</v>
+        <v>7.220485669813407E-09</v>
       </c>
       <c r="T14">
-        <v>6.481829129365794E-07</v>
+        <v>6.481822821950152E-07</v>
       </c>
       <c r="U14">
-        <v>3.315099962499637E-07</v>
+        <v>3.315096736602603E-07</v>
       </c>
       <c r="V14">
-        <v>4.585893307258392E-05</v>
+        <v>4.683198038144225E-05</v>
       </c>
       <c r="W14">
-        <v>0.00823677221154836</v>
+        <v>0.008236764196411761</v>
       </c>
       <c r="X14">
-        <v>1.106731263951046E-07</v>
+        <v>1.10673018699978E-07</v>
       </c>
       <c r="Y14">
-        <v>2.822471810596208E-06</v>
+        <v>2.822469064071656E-06</v>
       </c>
       <c r="Z14">
-        <v>4.00542518359486E-05</v>
+        <v>4.005421285947922E-05</v>
       </c>
       <c r="AB14">
-        <v>9.164571119854475E-06</v>
+        <v>9.164562201884243E-06</v>
       </c>
       <c r="AE14">
-        <v>1.606722893964805E-06</v>
+        <v>1.606721330475717E-06</v>
       </c>
       <c r="AF14">
-        <v>7.442103094888255E-06</v>
+        <v>7.442095853037762E-06</v>
       </c>
       <c r="AG14">
-        <v>0.00358004309286831</v>
+        <v>0.003580039609157254</v>
       </c>
       <c r="AH14">
-        <v>0.6146636139554205</v>
+        <v>0.6146630158312157</v>
       </c>
       <c r="AI14">
-        <v>1.840445486072784E-06</v>
+        <v>1.840443695150127E-06</v>
       </c>
       <c r="AK14">
-        <v>3.906004992646132E-08</v>
+        <v>3.90600119174418E-08</v>
       </c>
       <c r="AL14">
-        <v>0.001248269193141214</v>
+        <v>0.001248267978460531</v>
       </c>
       <c r="AM14">
-        <v>1.645311046208722E-08</v>
+        <v>1.645309445169814E-08</v>
       </c>
       <c r="AP14">
-        <v>1.969141980170011E-06</v>
+        <v>1.969140064013834E-06</v>
       </c>
       <c r="AQ14">
-        <v>0.0002627233469941424</v>
+        <v>0.0002627230913401726</v>
       </c>
       <c r="AR14">
-        <v>0.0005141215002609381</v>
+        <v>0.0005141209999734533</v>
       </c>
       <c r="AS14">
-        <v>7.678523833842915E-06</v>
+        <v>7.678516361933309E-06</v>
       </c>
       <c r="AT14">
-        <v>9.366544244289587E-07</v>
+        <v>9.366535129780935E-07</v>
       </c>
       <c r="AU14">
-        <v>3.4323163480234E-08</v>
+        <v>3.432313008064047E-08</v>
       </c>
       <c r="AV14">
-        <v>7.745918944715005E-06</v>
+        <v>7.745911407223761E-06</v>
       </c>
       <c r="AY14">
-        <v>3.59346128480748E-08</v>
+        <v>3.593457788039289E-08</v>
       </c>
       <c r="AZ14">
-        <v>4.44420992237575E-07</v>
+        <v>4.444205597750922E-07</v>
       </c>
       <c r="BB14">
-        <v>2.053717040556094E-07</v>
+        <v>2.053715042100608E-07</v>
       </c>
       <c r="BC14">
-        <v>0.02074250956079669</v>
+        <v>0.02074248937642795</v>
       </c>
       <c r="BD14">
-        <v>2.096781764990643E-07</v>
+        <v>2.09677972462922E-07</v>
       </c>
       <c r="BE14">
-        <v>2.738318959107561E-07</v>
+        <v>2.73831629447147E-07</v>
       </c>
       <c r="BF14">
-        <v>7.140089202814159E-05</v>
+        <v>7.140082254850949E-05</v>
       </c>
       <c r="BH14">
-        <v>8.329423636252579E-06</v>
+        <v>8.329415530957625E-06</v>
       </c>
       <c r="BN14">
-        <v>2.139958112177991E-07</v>
+        <v>2.139956029802013E-07</v>
       </c>
       <c r="BO14">
-        <v>8.921948320872252E-06</v>
+        <v>8.921939638996306E-06</v>
       </c>
       <c r="BQ14">
-        <v>0.08423488957802745</v>
+        <v>0.08423480760973587</v>
       </c>
       <c r="BR14">
-        <v>0.001224015914285196</v>
+        <v>0.001224014723205183</v>
       </c>
       <c r="BS14">
-        <v>5.941841567613856E-08</v>
+        <v>5.941835785655754E-08</v>
       </c>
       <c r="BT14">
-        <v>2.499016853720561E-07</v>
+        <v>2.499014421947418E-07</v>
       </c>
       <c r="BU14">
-        <v>0.01177815816906162</v>
+        <v>0.01177814670783091</v>
       </c>
       <c r="BW14">
-        <v>7.607010430661483E-05</v>
+        <v>7.607003028340992E-05</v>
       </c>
       <c r="BZ14">
-        <v>8.474187767462207E-06</v>
+        <v>8.474179521298445E-06</v>
       </c>
       <c r="CA14">
-        <v>1.634065470366979E-06</v>
+        <v>1.634063880271051E-06</v>
       </c>
       <c r="CD14">
-        <v>1.043880990079974E-06</v>
+        <v>1.043879974287802E-06</v>
       </c>
       <c r="CG14">
-        <v>3.194576544672784E-08</v>
+        <v>3.194573436056116E-08</v>
       </c>
       <c r="CH14">
-        <v>5.497608001640309E-08</v>
+        <v>5.497602651962308E-08</v>
       </c>
       <c r="CJ14">
-        <v>1.680638522912185E-06</v>
+        <v>1.680636887496395E-06</v>
       </c>
       <c r="CK14">
-        <v>0.002941833076004192</v>
+        <v>0.002941830213330155</v>
       </c>
       <c r="CM14">
-        <v>7.45227650919919E-07</v>
+        <v>7.452269257449029E-07</v>
       </c>
       <c r="CN14">
-        <v>4.808185308811864E-05</v>
+        <v>4.808180630005524E-05</v>
       </c>
       <c r="CO14">
-        <v>5.398425313088332E-06</v>
+        <v>5.398420059924204E-06</v>
       </c>
       <c r="CP14">
-        <v>2.680528777862464E-06</v>
+        <v>2.680526169461532E-06</v>
       </c>
       <c r="CR14">
-        <v>9.462589792034247E-08</v>
+        <v>9.462580584064448E-08</v>
       </c>
       <c r="CS14">
-        <v>0.0004332339817721056</v>
+        <v>0.0004332335601956125</v>
       </c>
       <c r="CT14">
-        <v>5.137417726091515E-05</v>
+        <v>5.137412726911765E-05</v>
       </c>
       <c r="CU14">
-        <v>8.550802667813853E-10</v>
+        <v>8.55079434709675E-10</v>
       </c>
       <c r="CV14">
-        <v>0.0001678538592802462</v>
+        <v>0.0001678536959430097</v>
       </c>
       <c r="CX14">
-        <v>0.01205824012944769</v>
+        <v>0.01205822839567148</v>
       </c>
       <c r="CZ14">
-        <v>5.266589720620584E-07</v>
+        <v>5.266584595744609E-07</v>
       </c>
       <c r="DB14">
-        <v>6.176496126407149E-06</v>
+        <v>6.17649011610859E-06</v>
       </c>
       <c r="DC14">
-        <v>0.000146105313112597</v>
+        <v>0.0001461051709386953</v>
       </c>
       <c r="DD14">
-        <v>0.004778849715738805</v>
+        <v>0.004778845065478694</v>
       </c>
       <c r="DE14">
-        <v>3.822293051031044E-06</v>
+        <v>3.822289331588507E-06</v>
       </c>
       <c r="DF14">
-        <v>0.02076997192236546</v>
+        <v>0.02076995171127332</v>
       </c>
       <c r="DG14">
-        <v>0.0004757369656194967</v>
+        <v>0.0004757365026836929</v>
       </c>
       <c r="DH14">
-        <v>4.791698215885594E-06</v>
+        <v>4.791693553122711E-06</v>
       </c>
       <c r="DK14">
-        <v>1.083323806087863E-09</v>
+        <v>1.083322751914206E-09</v>
       </c>
       <c r="DL14">
-        <v>0.00086658365786187</v>
+        <v>0.0008665828145963025</v>
       </c>
       <c r="DM14">
-        <v>0.0001041798892538015</v>
+        <v>0.0001041797878771916</v>
       </c>
       <c r="DN14">
-        <v>0.0185242580834723</v>
+        <v>0.01852424005766618</v>
       </c>
       <c r="DP14">
-        <v>0.006904783900032157</v>
+        <v>0.006904777181042639</v>
       </c>
       <c r="DR14">
-        <v>1.394469313996858E-06</v>
+        <v>1.394467957050017E-06</v>
       </c>
       <c r="DS14">
-        <v>0.0001198867641281712</v>
+        <v>0.000119886647467328</v>
       </c>
       <c r="DT14">
-        <v>2.915490507477361E-07</v>
+        <v>2.915487670437065E-07</v>
       </c>
       <c r="DW14">
-        <v>0.0006346370002444422</v>
+        <v>0.0006346363826842964</v>
       </c>
       <c r="DX14">
-        <v>9.515064564431482E-06</v>
+        <v>9.515055305398903E-06</v>
       </c>
       <c r="DY14">
-        <v>0.0002205347603753903</v>
+        <v>0.0002205345457747939</v>
       </c>
       <c r="DZ14">
-        <v>9.079761235184704E-09</v>
+        <v>9.079752399742285E-09</v>
       </c>
       <c r="EC14">
-        <v>0.01651016464134357</v>
+        <v>0.01651014857543553</v>
       </c>
       <c r="ED14">
-        <v>6.203491131215253E-07</v>
+        <v>6.203485094648071E-07</v>
       </c>
       <c r="EE14">
-        <v>1.927075196465715E-08</v>
+        <v>1.927073321244386E-08</v>
       </c>
       <c r="EG14">
-        <v>0.002505255585279392</v>
+        <v>0.002505253147435391</v>
       </c>
       <c r="EH14">
-        <v>0.02609725446512716</v>
+        <v>0.02609722907009935</v>
       </c>
       <c r="EI14">
-        <v>5.816336776191919E-09</v>
+        <v>5.816331116361518E-09</v>
       </c>
       <c r="EN14">
-        <v>9.9984462290253E-06</v>
+        <v>9.998436499617924E-06</v>
       </c>
       <c r="EO14">
-        <v>8.567697687756239E-07</v>
+        <v>8.567689350598727E-07</v>
       </c>
       <c r="EQ14">
-        <v>0.05240476294158734</v>
+        <v>0.05240471194693522</v>
       </c>
       <c r="ES14">
-        <v>3.385911312711326E-05</v>
+        <v>3.385908017908339E-05</v>
       </c>
       <c r="EU14">
-        <v>6.01121344246752E-06</v>
+        <v>6.011207593004207E-06</v>
       </c>
       <c r="EV14">
-        <v>0.0001761119652238222</v>
+        <v>0.0001761117938506894</v>
       </c>
       <c r="EW14">
-        <v>0.0207145958123928</v>
+        <v>0.0207145756551867</v>
       </c>
       <c r="EX14">
-        <v>1.152046769565179E-07</v>
+        <v>1.15204564851776E-07</v>
       </c>
       <c r="EY14">
-        <v>1.470199520732006E-06</v>
+        <v>1.470198090092711E-06</v>
       </c>
       <c r="EZ14">
-        <v>0.04241063180190716</v>
+        <v>0.04241059053246345</v>
       </c>
       <c r="FA14">
-        <v>8.245737705237909E-05</v>
+        <v>8.24572968137706E-05</v>
       </c>
       <c r="FB14">
-        <v>1.918502527400431E-05</v>
+        <v>1.918500660521097E-05</v>
       </c>
       <c r="FC14">
-        <v>0.008885293859138915</v>
+        <v>0.008885285212931131</v>
       </c>
       <c r="FE14">
-        <v>0.0003776141102817824</v>
+        <v>0.0003776137428285376</v>
       </c>
       <c r="FG14">
-        <v>8.796910262498027E-06</v>
+        <v>8.796901702295609E-06</v>
       </c>
       <c r="FK14">
         <v>2796274.388</v>
@@ -9080,7 +9080,7 @@
         <v>7959.37</v>
       </c>
       <c r="GB14">
-        <v>1101047.39</v>
+        <v>1124410.807</v>
       </c>
       <c r="GC14">
         <v>197760304</v>
